--- a/ARCHIVE/deployment/Omaha_Cal_Info_GP05MOAS-PG515_00001.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_GP05MOAS-PG515_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="3580" windowWidth="25600" windowHeight="14620" tabRatio="377"/>
+    <workbookView xWindow="8580" yWindow="3585" windowWidth="25605" windowHeight="14625" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$79</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$387</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
   <si>
     <t>Ref Des</t>
   </si>
@@ -181,6 +186,9 @@
   </si>
   <si>
     <t>OL000134</t>
+  </si>
+  <si>
+    <t>OL000616</t>
   </si>
 </sst>
 </file>
@@ -884,23 +892,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="4" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="9" width="19" customWidth="1"/>
-    <col min="10" max="11" width="13.1640625" customWidth="1"/>
-    <col min="12" max="12" width="29.1640625" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
@@ -938,7 +946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -984,7 +992,7 @@
         <v>-144.5446</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -1003,24 +1011,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -1076,7 +1084,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="16"/>
@@ -1092,7 +1100,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1">
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1125,7 +1133,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1">
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1159,7 +1167,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1">
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1193,7 +1201,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1">
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1227,7 +1235,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1">
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -1238,7 +1246,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1">
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1251,6 +1259,9 @@
       <c r="D9" s="24">
         <v>1</v>
       </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
       <c r="F9" s="24">
         <v>1239</v>
       </c>
@@ -1265,7 +1276,7 @@
       </c>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1278,6 +1289,9 @@
       <c r="D10" s="24">
         <v>1</v>
       </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
       <c r="F10" s="24">
         <v>1239</v>
       </c>
@@ -1293,7 +1307,7 @@
       <c r="P10" s="28"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1306,6 +1320,9 @@
       <c r="D11" s="24">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
       <c r="F11" s="24">
         <v>1239</v>
       </c>
@@ -1321,7 +1338,7 @@
       <c r="P11" s="28"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1">
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1334,6 +1351,9 @@
       <c r="D12" s="24">
         <v>1</v>
       </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
       <c r="F12" s="24">
         <v>1239</v>
       </c>
@@ -1349,7 +1369,7 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1">
+    <row r="13" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="16"/>
@@ -1365,7 +1385,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1390,7 +1410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1">
+    <row r="15" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="16"/>
@@ -1406,7 +1426,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>37</v>
       </c>
@@ -1423,7 +1443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>38</v>
       </c>
@@ -1441,7 +1461,7 @@
       </c>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>38</v>
       </c>
@@ -1459,7 +1479,7 @@
       </c>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1497,7 @@
       </c>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>38</v>
       </c>
@@ -1495,7 +1515,7 @@
       </c>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
         <v>38</v>
       </c>
@@ -1513,7 +1533,7 @@
       </c>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>38</v>
       </c>
@@ -1531,7 +1551,7 @@
       </c>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>38</v>
       </c>
@@ -1549,12 +1569,12 @@
       </c>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C25" s="16"/>
       <c r="D25" s="12"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:17" s="2" customFormat="1">
+    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>22</v>
       </c>

--- a/ARCHIVE/deployment/Omaha_Cal_Info_GP05MOAS-PG515_00001.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_GP05MOAS-PG515_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="3585" windowWidth="25605" windowHeight="14625" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="8580" yWindow="3580" windowWidth="25600" windowHeight="14620" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$79</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$387</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>Ref Des</t>
   </si>
@@ -186,9 +181,6 @@
   </si>
   <si>
     <t>OL000134</t>
-  </si>
-  <si>
-    <t>OL000616</t>
   </si>
 </sst>
 </file>
@@ -892,23 +884,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="4" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="9" width="19" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="10" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="29.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
@@ -946,7 +938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -992,7 +984,7 @@
         <v>-144.5446</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -1011,24 +1003,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="2" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -1084,7 +1076,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="2" customFormat="1">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="16"/>
@@ -1100,7 +1092,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="2" customFormat="1">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1133,7 +1125,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="2" customFormat="1">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1167,7 +1159,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="2" customFormat="1">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1201,7 +1193,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="2" customFormat="1">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1235,7 +1227,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="2" customFormat="1">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -1246,7 +1238,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="2" customFormat="1">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1259,9 +1251,6 @@
       <c r="D9" s="24">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="24">
         <v>1239</v>
       </c>
@@ -1276,7 +1265,7 @@
       </c>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="2" customFormat="1">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1289,9 +1278,6 @@
       <c r="D10" s="24">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="24">
         <v>1239</v>
       </c>
@@ -1307,7 +1293,7 @@
       <c r="P10" s="28"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="2" customFormat="1">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1320,9 +1306,6 @@
       <c r="D11" s="24">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
       <c r="F11" s="24">
         <v>1239</v>
       </c>
@@ -1338,7 +1321,7 @@
       <c r="P11" s="28"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="2" customFormat="1">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1351,9 +1334,6 @@
       <c r="D12" s="24">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
       <c r="F12" s="24">
         <v>1239</v>
       </c>
@@ -1369,7 +1349,7 @@
       <c r="P12" s="28"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="2" customFormat="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="16"/>
@@ -1385,7 +1365,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="2" customFormat="1">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1410,7 +1390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="2" customFormat="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="16"/>
@@ -1426,7 +1406,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="I16" t="s">
         <v>37</v>
       </c>
@@ -1443,7 +1423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="I18" t="s">
         <v>38</v>
       </c>
@@ -1461,7 +1441,7 @@
       </c>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="I19" t="s">
         <v>38</v>
       </c>
@@ -1479,7 +1459,7 @@
       </c>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="I20" t="s">
         <v>38</v>
       </c>
@@ -1497,7 +1477,7 @@
       </c>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="I21" t="s">
         <v>38</v>
       </c>
@@ -1515,7 +1495,7 @@
       </c>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="I22" t="s">
         <v>38</v>
       </c>
@@ -1533,7 +1513,7 @@
       </c>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="I23" t="s">
         <v>38</v>
       </c>
@@ -1551,7 +1531,7 @@
       </c>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="I24" t="s">
         <v>38</v>
       </c>
@@ -1569,12 +1549,12 @@
       </c>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="C25" s="16"/>
       <c r="D25" s="12"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="2" customFormat="1">
       <c r="A26" s="9" t="s">
         <v>22</v>
       </c>
